--- a/output/design_bucatarie_george_output/Comanda_Front_A34R3_George Mihes.xlsx
+++ b/output/design_bucatarie_george_output/Comanda_Front_A34R3_George Mihes.xlsx
@@ -1482,10 +1482,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="105" t="n">
-        <v>1996</v>
+        <v>738</v>
       </c>
       <c r="C21" s="106" t="n">
-        <v>596</v>
+        <v>446</v>
       </c>
       <c r="D21" s="106" t="n">
         <v>1</v>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="F21" s="108" t="inlineStr">
         <is>
-          <t>T1_1</t>
+          <t>C4_1</t>
         </is>
       </c>
     </row>
@@ -1504,415 +1504,235 @@
       <c r="A22" s="104" t="n">
         <v>2</v>
       </c>
-      <c r="B22" s="105" t="n">
-        <v>294</v>
-      </c>
-      <c r="C22" s="106" t="n">
-        <v>596</v>
-      </c>
-      <c r="D22" s="106" t="n">
-        <v>1</v>
-      </c>
+      <c r="B22" s="105" t="n"/>
+      <c r="C22" s="106" t="n"/>
+      <c r="D22" s="106" t="n"/>
       <c r="E22" s="107">
         <f>ROUND((B22*C22*D22/1000000),3)</f>
         <v/>
       </c>
-      <c r="F22" s="108" t="inlineStr">
-        <is>
-          <t>C1_1</t>
-        </is>
-      </c>
+      <c r="F22" s="108" t="n"/>
     </row>
     <row r="23" ht="15" customHeight="1" s="62">
       <c r="A23" s="104" t="n">
         <v>3</v>
       </c>
-      <c r="B23" s="105" t="n">
-        <v>294</v>
-      </c>
-      <c r="C23" s="106" t="n">
-        <v>596</v>
-      </c>
-      <c r="D23" s="106" t="n">
-        <v>1</v>
-      </c>
+      <c r="B23" s="105" t="n"/>
+      <c r="C23" s="106" t="n"/>
+      <c r="D23" s="106" t="n"/>
       <c r="E23" s="107">
         <f>ROUND((B23*C23*D23/1000000),3)</f>
         <v/>
       </c>
-      <c r="F23" s="108" t="inlineStr">
-        <is>
-          <t>C1_2</t>
-        </is>
-      </c>
+      <c r="F23" s="108" t="n"/>
     </row>
     <row r="24" ht="15" customHeight="1" s="62">
       <c r="A24" s="104" t="n">
         <v>4</v>
       </c>
-      <c r="B24" s="105" t="n">
-        <v>146</v>
-      </c>
-      <c r="C24" s="106" t="n">
-        <v>596</v>
-      </c>
-      <c r="D24" s="106" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="105" t="n"/>
+      <c r="C24" s="106" t="n"/>
+      <c r="D24" s="106" t="n"/>
       <c r="E24" s="107">
         <f>ROUND((B24*C24*D24/1000000),3)</f>
         <v/>
       </c>
-      <c r="F24" s="108" t="inlineStr">
-        <is>
-          <t>C1_3</t>
-        </is>
-      </c>
+      <c r="F24" s="108" t="n"/>
     </row>
     <row r="25" ht="15" customHeight="1" s="62">
       <c r="A25" s="104" t="n">
         <v>5</v>
       </c>
-      <c r="B25" s="105" t="n">
-        <v>738</v>
-      </c>
-      <c r="C25" s="106" t="n">
-        <v>279</v>
-      </c>
-      <c r="D25" s="106" t="n">
-        <v>1</v>
-      </c>
+      <c r="B25" s="105" t="n"/>
+      <c r="C25" s="106" t="n"/>
+      <c r="D25" s="106" t="n"/>
       <c r="E25" s="107">
         <f>ROUND((B25*C25*D25/1000000),3)</f>
         <v/>
       </c>
-      <c r="F25" s="108" t="inlineStr">
-        <is>
-          <t>C2_1</t>
-        </is>
-      </c>
+      <c r="F25" s="108" t="n"/>
     </row>
     <row r="26" ht="15" customHeight="1" s="62">
       <c r="A26" s="104" t="n">
         <v>6</v>
       </c>
-      <c r="B26" s="105" t="n">
-        <v>738</v>
-      </c>
-      <c r="C26" s="106" t="n">
-        <v>279</v>
-      </c>
-      <c r="D26" s="106" t="n">
-        <v>1</v>
-      </c>
+      <c r="B26" s="105" t="n"/>
+      <c r="C26" s="106" t="n"/>
+      <c r="D26" s="106" t="n"/>
       <c r="E26" s="107">
         <f>ROUND((B26*C26*D26/1000000),3)</f>
         <v/>
       </c>
-      <c r="F26" s="108" t="inlineStr">
-        <is>
-          <t>C2_2</t>
-        </is>
-      </c>
+      <c r="F26" s="108" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1" s="62">
       <c r="A27" s="104" t="n">
         <v>7</v>
       </c>
-      <c r="B27" s="105" t="n">
-        <v>146</v>
-      </c>
-      <c r="C27" s="106" t="n">
-        <v>596</v>
-      </c>
-      <c r="D27" s="106" t="n">
-        <v>1</v>
-      </c>
+      <c r="B27" s="105" t="n"/>
+      <c r="C27" s="106" t="n"/>
+      <c r="D27" s="106" t="n"/>
       <c r="E27" s="107">
         <f>ROUND((B27*C27*D27/1000000),3)</f>
         <v/>
       </c>
-      <c r="F27" s="108" t="inlineStr">
-        <is>
-          <t>C3_1</t>
-        </is>
-      </c>
+      <c r="F27" s="108" t="n"/>
     </row>
     <row r="28" ht="15" customHeight="1" s="62">
       <c r="A28" s="104" t="n">
         <v>8</v>
       </c>
-      <c r="B28" s="105" t="n">
-        <v>738</v>
-      </c>
-      <c r="C28" s="106" t="n">
-        <v>446</v>
-      </c>
-      <c r="D28" s="106" t="n">
-        <v>1</v>
-      </c>
+      <c r="B28" s="105" t="n"/>
+      <c r="C28" s="106" t="n"/>
+      <c r="D28" s="106" t="n"/>
       <c r="E28" s="107">
         <f>ROUND((B28*C28*D28/1000000),3)</f>
         <v/>
       </c>
-      <c r="F28" s="108" t="inlineStr">
-        <is>
-          <t>C4_1</t>
-        </is>
-      </c>
+      <c r="F28" s="108" t="n"/>
     </row>
     <row r="29" ht="15" customHeight="1" s="62">
       <c r="A29" s="104" t="n">
         <v>9</v>
       </c>
-      <c r="B29" s="105" t="n">
-        <v>738</v>
-      </c>
-      <c r="C29" s="106" t="n">
-        <v>547</v>
-      </c>
-      <c r="D29" s="106" t="n">
-        <v>1</v>
-      </c>
+      <c r="B29" s="105" t="n"/>
+      <c r="C29" s="106" t="n"/>
+      <c r="D29" s="106" t="n"/>
       <c r="E29" s="107">
         <f>ROUND((B29*C29*D29/1000000),3)</f>
         <v/>
       </c>
-      <c r="F29" s="108" t="inlineStr">
-        <is>
-          <t>C5_1</t>
-        </is>
-      </c>
+      <c r="F29" s="108" t="n"/>
     </row>
     <row r="30" ht="15" customHeight="1" s="62">
       <c r="A30" s="104" t="n">
         <v>10</v>
       </c>
-      <c r="B30" s="105" t="n">
-        <v>738</v>
-      </c>
-      <c r="C30" s="106" t="n">
-        <v>547</v>
-      </c>
-      <c r="D30" s="106" t="n">
-        <v>1</v>
-      </c>
+      <c r="B30" s="105" t="n"/>
+      <c r="C30" s="106" t="n"/>
+      <c r="D30" s="106" t="n"/>
       <c r="E30" s="107">
         <f>ROUND((B30*C30*D30/1000000),3)</f>
         <v/>
       </c>
-      <c r="F30" s="108" t="inlineStr">
-        <is>
-          <t>C5_2</t>
-        </is>
-      </c>
+      <c r="F30" s="108" t="n"/>
     </row>
     <row r="31" ht="15" customHeight="1" s="62">
       <c r="A31" s="104" t="n">
         <v>11</v>
       </c>
-      <c r="B31" s="105" t="n">
-        <v>738</v>
-      </c>
-      <c r="C31" s="106" t="n">
-        <v>146</v>
-      </c>
-      <c r="D31" s="106" t="n">
-        <v>1</v>
-      </c>
+      <c r="B31" s="105" t="n"/>
+      <c r="C31" s="106" t="n"/>
+      <c r="D31" s="106" t="n"/>
       <c r="E31" s="107">
         <f>ROUND((B31*C31*D31/1000000),3)</f>
         <v/>
       </c>
-      <c r="F31" s="108" t="inlineStr">
-        <is>
-          <t>C6_1</t>
-        </is>
-      </c>
+      <c r="F31" s="108" t="n"/>
     </row>
     <row r="32" ht="15" customHeight="1" s="62">
       <c r="A32" s="104" t="n">
         <v>12</v>
       </c>
-      <c r="B32" s="105" t="n">
-        <v>496</v>
-      </c>
-      <c r="C32" s="106" t="n">
-        <v>297</v>
-      </c>
-      <c r="D32" s="106" t="n">
-        <v>1</v>
-      </c>
+      <c r="B32" s="105" t="n"/>
+      <c r="C32" s="106" t="n"/>
+      <c r="D32" s="106" t="n"/>
       <c r="E32" s="107">
         <f>ROUND((B32*C32*D32/1000000),3)</f>
         <v/>
       </c>
-      <c r="F32" s="108" t="inlineStr">
-        <is>
-          <t>S1_1</t>
-        </is>
-      </c>
+      <c r="F32" s="108" t="n"/>
     </row>
     <row r="33" ht="15" customHeight="1" s="62">
       <c r="A33" s="104" t="n">
         <v>13</v>
       </c>
-      <c r="B33" s="105" t="n">
-        <v>496</v>
-      </c>
-      <c r="C33" s="106" t="n">
-        <v>297</v>
-      </c>
-      <c r="D33" s="106" t="n">
-        <v>1</v>
-      </c>
+      <c r="B33" s="105" t="n"/>
+      <c r="C33" s="106" t="n"/>
+      <c r="D33" s="106" t="n"/>
       <c r="E33" s="107">
         <f>ROUND((B33*C33*D33/1000000),3)</f>
         <v/>
       </c>
-      <c r="F33" s="108" t="inlineStr">
-        <is>
-          <t>S1_2</t>
-        </is>
-      </c>
+      <c r="F33" s="108" t="n"/>
     </row>
     <row r="34" ht="15" customHeight="1" s="62">
       <c r="A34" s="104" t="n">
         <v>14</v>
       </c>
-      <c r="B34" s="105" t="n">
-        <v>496</v>
-      </c>
-      <c r="C34" s="106" t="n">
-        <v>296</v>
-      </c>
-      <c r="D34" s="106" t="n">
-        <v>1</v>
-      </c>
+      <c r="B34" s="105" t="n"/>
+      <c r="C34" s="106" t="n"/>
+      <c r="D34" s="106" t="n"/>
       <c r="E34" s="107">
         <f>ROUND((B34*C34*D34/1000000),3)</f>
         <v/>
       </c>
-      <c r="F34" s="108" t="inlineStr">
-        <is>
-          <t>S2_1</t>
-        </is>
-      </c>
+      <c r="F34" s="108" t="n"/>
     </row>
     <row r="35" ht="15" customHeight="1" s="62">
       <c r="A35" s="104" t="n">
         <v>15</v>
       </c>
-      <c r="B35" s="105" t="n">
-        <v>496</v>
-      </c>
-      <c r="C35" s="106" t="n">
-        <v>279</v>
-      </c>
-      <c r="D35" s="106" t="n">
-        <v>1</v>
-      </c>
+      <c r="B35" s="105" t="n"/>
+      <c r="C35" s="106" t="n"/>
+      <c r="D35" s="106" t="n"/>
       <c r="E35" s="107">
         <f>ROUND((B35*C35*D35/1000000),3)</f>
         <v/>
       </c>
-      <c r="F35" s="108" t="inlineStr">
-        <is>
-          <t>S3_1</t>
-        </is>
-      </c>
+      <c r="F35" s="108" t="n"/>
     </row>
     <row r="36" ht="15" customHeight="1" s="62">
       <c r="A36" s="104" t="n">
         <v>16</v>
       </c>
-      <c r="B36" s="105" t="n">
-        <v>496</v>
-      </c>
-      <c r="C36" s="106" t="n">
-        <v>179</v>
-      </c>
-      <c r="D36" s="106" t="n">
-        <v>1</v>
-      </c>
+      <c r="B36" s="105" t="n"/>
+      <c r="C36" s="106" t="n"/>
+      <c r="D36" s="106" t="n"/>
       <c r="E36" s="107">
         <f>ROUND((B36*C36*D36/1000000),3)</f>
         <v/>
       </c>
-      <c r="F36" s="108" t="inlineStr">
-        <is>
-          <t>S3_2</t>
-        </is>
-      </c>
+      <c r="F36" s="108" t="n"/>
     </row>
     <row r="37" ht="15" customHeight="1" s="62">
       <c r="A37" s="104" t="n">
         <v>17</v>
       </c>
-      <c r="B37" s="105" t="n">
-        <v>496</v>
-      </c>
-      <c r="C37" s="106" t="n">
-        <v>208</v>
-      </c>
-      <c r="D37" s="106" t="n">
-        <v>1</v>
-      </c>
+      <c r="B37" s="105" t="n"/>
+      <c r="C37" s="106" t="n"/>
+      <c r="D37" s="106" t="n"/>
       <c r="E37" s="107">
         <f>ROUND((B37*C37*D37/1000000),3)</f>
         <v/>
       </c>
-      <c r="F37" s="108" t="inlineStr">
-        <is>
-          <t>S4_1</t>
-        </is>
-      </c>
+      <c r="F37" s="108" t="n"/>
     </row>
     <row r="38" ht="15" customHeight="1" s="62">
       <c r="A38" s="104" t="n">
         <v>18</v>
       </c>
-      <c r="B38" s="105" t="n">
-        <v>446</v>
-      </c>
-      <c r="C38" s="106" t="n">
-        <v>297</v>
-      </c>
-      <c r="D38" s="106" t="n">
-        <v>1</v>
-      </c>
+      <c r="B38" s="105" t="n"/>
+      <c r="C38" s="106" t="n"/>
+      <c r="D38" s="106" t="n"/>
       <c r="E38" s="107">
         <f>ROUND((B38*C38*D38/1000000),3)</f>
         <v/>
       </c>
-      <c r="F38" s="108" t="inlineStr">
-        <is>
-          <t>S5_1</t>
-        </is>
-      </c>
+      <c r="F38" s="108" t="n"/>
     </row>
     <row r="39" ht="15" customHeight="1" s="62">
       <c r="A39" s="104" t="n">
         <v>19</v>
       </c>
-      <c r="B39" s="105" t="n">
-        <v>446</v>
-      </c>
-      <c r="C39" s="106" t="n">
-        <v>297</v>
-      </c>
-      <c r="D39" s="106" t="n">
-        <v>1</v>
-      </c>
+      <c r="B39" s="105" t="n"/>
+      <c r="C39" s="106" t="n"/>
+      <c r="D39" s="106" t="n"/>
       <c r="E39" s="107">
         <f>ROUND((B39*C39*D39/1000000),3)</f>
         <v/>
       </c>
-      <c r="F39" s="108" t="inlineStr">
-        <is>
-          <t>S5_2</t>
-        </is>
-      </c>
+      <c r="F39" s="108" t="n"/>
     </row>
     <row r="40" ht="15" customHeight="1" s="62">
       <c r="A40" s="104" t="n">
